--- a/company/reports/lrb_600519.xlsx
+++ b/company/reports/lrb_600519.xlsx
@@ -502,117 +502,117 @@
       <c r="A3" t="str">
         <v>一、营业总收入</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <v>77199384110.22</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <v>61062756866.16</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3">
         <v>40155084412.93</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3">
         <v>33446859045.58</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <v>32217213741.08</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3">
         <v>31070596222.23</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3">
         <v>26455335152.99</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3">
         <v>18402355207.3</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3">
         <v>11633283740.18</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3">
         <v>9669999065.39</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3">
         <v>8241685564.11</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M3">
         <v>7237430747.12</v>
       </c>
-      <c r="N3" t="str">
+      <c r="N3">
         <v>4896186901.21</v>
       </c>
-      <c r="O3" t="str">
+      <c r="O3">
         <v>3930515237.61</v>
       </c>
-      <c r="P3" t="str">
+      <c r="P3">
         <v>3009793519.92</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="Q3">
         <v>2401017934.93</v>
       </c>
-      <c r="R3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v/>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>其中：营业收入（元）</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <v>73638872388.03</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <v>58217861314.17</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4">
         <v>38862189993.84</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4">
         <v>32659583725.28</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4">
         <v>31573928530.94</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4">
         <v>30921801316.6</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4">
         <v>26455335152.99</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4">
         <v>18402355207.3</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4">
         <v>11633283740.18</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4">
         <v>9669999065.39</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4">
         <v>8241685564.11</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4">
         <v>7237430747.12</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N4">
         <v>4896186901.21</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O4">
         <v>3930515237.61</v>
       </c>
-      <c r="P4" t="str">
+      <c r="P4">
         <v>3009793519.92</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="Q4">
         <v>2401017934.93</v>
       </c>
-      <c r="R4" t="str">
+      <c r="R4">
         <v>1838129976.34</v>
       </c>
-      <c r="S4" t="str">
+      <c r="S4">
         <v>1619202408.97</v>
       </c>
     </row>
@@ -620,117 +620,117 @@
       <c r="A5" t="str">
         <v>二、营业总成本</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <v>6659364000.96</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <v>6075699547.03</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5">
         <v>3533138729.23</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5">
         <v>2612559241.17</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5">
         <v>2397844372.19</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5">
         <v>2229518339.01</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5">
         <v>2044306468.76</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5">
         <v>1551233976.06</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5">
         <v>1052931591.61</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5">
         <v>950672855.27</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5">
         <v>799713319.24</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5">
         <v>871643568.33</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N5">
         <v>791179840.49</v>
       </c>
-      <c r="O5" t="str">
+      <c r="O5">
         <v>687106816.68</v>
       </c>
-      <c r="P5" t="str">
+      <c r="P5">
         <v>535056248.95</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5">
         <v>477388129.86</v>
       </c>
-      <c r="R5" t="str">
-        <v/>
-      </c>
-      <c r="S5" t="str">
-        <v/>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>其中：营业成本</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <v>6522921833.77</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <v>5940436371.97</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6">
         <v>3410104085.97</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6">
         <v>2538337449.06</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6">
         <v>2338550532.33</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6">
         <v>2193920307.99</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6">
         <v>2044306468.76</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6">
         <v>1551233976.06</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6">
         <v>1052931591.61</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6">
         <v>950672855.27</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6">
         <v>799713319.24</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6">
         <v>871643568.33</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N6">
         <v>791179840.49</v>
       </c>
-      <c r="O6" t="str">
+      <c r="O6">
         <v>687106816.68</v>
       </c>
-      <c r="P6" t="str">
+      <c r="P6">
         <v>535056248.95</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="Q6">
         <v>477388129.86</v>
       </c>
-      <c r="R6" t="str">
+      <c r="R6">
         <v>340556444.79</v>
       </c>
-      <c r="S6" t="str">
+      <c r="S6">
         <v>287538468.11</v>
       </c>
     </row>
@@ -738,58 +738,58 @@
       <c r="A7" t="str">
         <v>营业税金及附加</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <v>11288926846.97</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <v>8404214470.69</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7">
         <v>6508926343.26</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7">
         <v>3449170637.4</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7">
         <v>2788994436.05</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7">
         <v>2790747889.49</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7">
         <v>2572644755.42</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7">
         <v>2477391798.01</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7">
         <v>1577013104.9</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7">
         <v>940508549.66</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7">
         <v>681761604.71</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7">
         <v>604078928.41</v>
       </c>
-      <c r="N7" t="str">
+      <c r="N7">
         <v>574699589.66</v>
       </c>
-      <c r="O7" t="str">
+      <c r="O7">
         <v>530245028.46</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7">
         <v>324855608.17</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="Q7">
         <v>308189009.56</v>
       </c>
-      <c r="R7" t="str">
+      <c r="R7">
         <v>320026615.95</v>
       </c>
-      <c r="S7" t="str">
+      <c r="S7">
         <v>317884849.44</v>
       </c>
     </row>
@@ -797,58 +797,58 @@
       <c r="A8" t="str">
         <v>销售费用</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <v>2572076872.16</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <v>2986068544.99</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8">
         <v>1681052022.9</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8">
         <v>1484961519.21</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8">
         <v>1674733451.06</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8">
         <v>1858132722.71</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8">
         <v>1224553444.02</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8">
         <v>720327727.89</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8">
         <v>676531662.09</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8">
         <v>621284334.75</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8">
         <v>532024659.8</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M8">
         <v>560385186.98</v>
       </c>
-      <c r="N8" t="str">
+      <c r="N8">
         <v>579353831.58</v>
       </c>
-      <c r="O8" t="str">
+      <c r="O8">
         <v>475939394.33</v>
       </c>
-      <c r="P8" t="str">
+      <c r="P8">
         <v>376522300.75</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="Q8">
         <v>365256375.5</v>
       </c>
-      <c r="R8" t="str">
+      <c r="R8">
         <v>308176458.6</v>
       </c>
-      <c r="S8" t="str">
+      <c r="S8">
         <v>228319500.78</v>
       </c>
     </row>
@@ -856,58 +856,58 @@
       <c r="A9" t="str">
         <v>管理费用</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <v>5325940762.24</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <v>4720542820.14</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9">
         <v>4187189840.42</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9">
         <v>3812852076.19</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9">
         <v>3378499544.59</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <v>2834740716</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9">
         <v>2204190581.13</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9">
         <v>1673872427.75</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9">
         <v>1346014202.04</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
         <v>1217158463.04</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9">
         <v>941174062.44</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9">
         <v>723155575.2</v>
       </c>
-      <c r="N9" t="str">
+      <c r="N9">
         <v>492828170.28</v>
       </c>
-      <c r="O9" t="str">
+      <c r="O9">
         <v>350685099.47</v>
       </c>
-      <c r="P9" t="str">
+      <c r="P9">
         <v>311563047.89</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q9">
         <v>291880260.69</v>
       </c>
-      <c r="R9" t="str">
+      <c r="R9">
         <v>237706731.47</v>
       </c>
-      <c r="S9" t="str">
+      <c r="S9">
         <v>181060278.22</v>
       </c>
     </row>
@@ -915,58 +915,58 @@
       <c r="A10" t="str">
         <v>财务费用</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <v>-3521209.23</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <v>-55722346.19</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10">
         <v>-33175188.52</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10">
         <v>-67266800.97</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10">
         <v>-123168793.84</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10">
         <v>-429074364.68</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10">
         <v>-420975922.49</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10">
         <v>-350751496.92</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10">
         <v>-176577024.91</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
         <v>-133636115.78</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10">
         <v>-102500765.33</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10">
         <v>-44743824.95</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10">
         <v>-25268367.89</v>
       </c>
-      <c r="O10" t="str">
+      <c r="O10">
         <v>-32264593.95</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10">
         <v>-25993795.54</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q10">
         <v>-16050225.99</v>
       </c>
-      <c r="R10" t="str">
+      <c r="R10">
         <v>-17461501.87</v>
       </c>
-      <c r="S10" t="str">
+      <c r="S10">
         <v>-5742353.49</v>
       </c>
     </row>
@@ -974,58 +974,58 @@
       <c r="A11" t="str">
         <v>资产减值损失</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
         <v>1289685.01</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <v>-8053703.95</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11">
         <v>12327496.22</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11">
         <v>-540313.39</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11">
         <v>432745.88</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
         <v>-2004032.3</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11">
         <v>2979258.5</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11">
         <v>-2500650.57</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11">
         <v>-3066975.05</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11">
         <v>-300085.01</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11">
         <v>450078.22</v>
       </c>
-      <c r="M11" t="str">
+      <c r="M11">
         <v>-614738.65</v>
       </c>
-      <c r="N11" t="str">
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <v/>
-      </c>
-      <c r="P11" t="str">
-        <v/>
-      </c>
-      <c r="Q11" t="str">
-        <v/>
-      </c>
-      <c r="R11" t="str">
-        <v>0</v>
-      </c>
-      <c r="S11" t="str">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>0</v>
       </c>
     </row>
@@ -1033,117 +1033,117 @@
       <c r="A12" t="str">
         <v>加：公允价值变动净收益</v>
       </c>
-      <c r="B12" t="str">
-        <v/>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <v/>
-      </c>
-      <c r="O12" t="str">
-        <v/>
-      </c>
-      <c r="P12" t="str">
-        <v/>
-      </c>
-      <c r="Q12" t="str">
-        <v/>
-      </c>
-      <c r="R12" t="str">
-        <v/>
-      </c>
-      <c r="S12" t="str">
-        <v/>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>投资收益</v>
       </c>
-      <c r="B13" t="str">
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>3869276.9</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13">
         <v>3095265.75</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13">
         <v>3010000</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13">
         <v>3103250</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13">
         <v>3383000</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13">
         <v>469050</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13">
         <v>1209447.26</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13">
         <v>1322250</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13">
         <v>1814950</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N13">
         <v>3012928.94</v>
       </c>
-      <c r="O13" t="str">
+      <c r="O13">
         <v>427953.6</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P13">
         <v>315063.71</v>
       </c>
-      <c r="Q13" t="str">
-        <v>0</v>
-      </c>
-      <c r="R13" t="str">
-        <v>0</v>
-      </c>
-      <c r="S13" t="str">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>0</v>
       </c>
     </row>
@@ -1151,176 +1151,176 @@
       <c r="A14" t="str">
         <v>其中：对联营企业和合营企业的投资收益</v>
       </c>
-      <c r="B14" t="str">
-        <v/>
-      </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <v/>
-      </c>
-      <c r="K14" t="str">
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <v/>
-      </c>
-      <c r="N14" t="str">
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <v/>
-      </c>
-      <c r="P14" t="str">
-        <v/>
-      </c>
-      <c r="Q14" t="str">
-        <v/>
-      </c>
-      <c r="R14" t="str">
-        <v/>
-      </c>
-      <c r="S14" t="str">
-        <v/>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>汇兑收益</v>
       </c>
-      <c r="B15" t="str">
-        <v/>
-      </c>
-      <c r="C15" t="str">
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <v/>
-      </c>
-      <c r="P15" t="str">
-        <v/>
-      </c>
-      <c r="Q15" t="str">
-        <v/>
-      </c>
-      <c r="R15" t="str">
-        <v/>
-      </c>
-      <c r="S15" t="str">
-        <v/>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <v>三、营业利润</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16">
         <v>51342987681.18</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <v>38940007533.45</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16">
         <v>24265625169.42</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16">
         <v>22158991962.87</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16">
         <v>22102973250.9</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16">
         <v>21791544952</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16">
         <v>18830739817.65</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16">
         <v>12336164425.08</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J16">
         <v>7160906229.5</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16">
         <v>6075520510.72</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16">
         <v>5390384855.03</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M16">
         <v>4525341001.8</v>
       </c>
-      <c r="N16" t="str">
+      <c r="N16">
         <v>2486802681.84</v>
       </c>
-      <c r="O16" t="str">
+      <c r="O16">
         <v>1919280411.18</v>
       </c>
-      <c r="P16" t="str">
+      <c r="P16">
         <v>1488107055.83</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="Q16">
         <v>975438404.24</v>
       </c>
-      <c r="R16" t="str">
+      <c r="R16">
         <v>649125227.4</v>
       </c>
-      <c r="S16" t="str">
+      <c r="S16">
         <v>610141665.91</v>
       </c>
     </row>
@@ -1328,58 +1328,58 @@
       <c r="A17" t="str">
         <v>营业外收入</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <v>11619526.11</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
         <v>12201990.51</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17">
         <v>8553926.06</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17">
         <v>4823183.32</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17">
         <v>6562552.18</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17">
         <v>32763249.14</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17">
         <v>6756532.19</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17">
         <v>7181584.54</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J17">
         <v>5307144.91</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17">
         <v>6247977</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17">
         <v>6282035.79</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M17">
         <v>2917186.44</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N17">
         <v>1149619.55</v>
       </c>
-      <c r="O17" t="str">
+      <c r="O17">
         <v>1762887.9</v>
       </c>
-      <c r="P17" t="str">
+      <c r="P17">
         <v>3601893.97</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="Q17">
         <v>1392334.71</v>
       </c>
-      <c r="R17" t="str">
+      <c r="R17">
         <v>137822</v>
       </c>
-      <c r="S17" t="str">
+      <c r="S17">
         <v>72208.04</v>
       </c>
     </row>
@@ -1387,58 +1387,58 @@
       <c r="A18" t="str">
         <v>减：营业外支出</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18">
         <v>527003759.82</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <v>212137381.36</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18">
         <v>316298138.37</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18">
         <v>162100184.85</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18">
         <v>227193365.75</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18">
         <v>391947775.17</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18">
         <v>137005880.68</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18">
         <v>8685535.82</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J18">
         <v>3796643.04</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18">
         <v>1228603.08</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L18">
         <v>11366252.66</v>
       </c>
-      <c r="M18" t="str">
+      <c r="M18">
         <v>6233172.31</v>
       </c>
-      <c r="N18" t="str">
+      <c r="N18">
         <v>191818.51</v>
       </c>
-      <c r="O18" t="str">
+      <c r="O18">
         <v>796935.44</v>
       </c>
-      <c r="P18" t="str">
+      <c r="P18">
         <v>1036434.99</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="Q18">
         <v>137513.69</v>
       </c>
-      <c r="R18" t="str">
+      <c r="R18">
         <v>10611.88</v>
       </c>
-      <c r="S18" t="str">
+      <c r="S18">
         <v>3004334.7</v>
       </c>
     </row>
@@ -1446,117 +1446,117 @@
       <c r="A19" t="str">
         <v>其中：非流动资产处置损失</v>
       </c>
-      <c r="B19" t="str">
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <v/>
-      </c>
-      <c r="D19" t="str">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1960971.07</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19">
         <v>188439.42</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19">
         <v>86754481.23</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19">
         <v>8997287.17</v>
       </c>
-      <c r="H19" t="str">
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <v/>
-      </c>
-      <c r="K19" t="str">
-        <v/>
-      </c>
-      <c r="L19" t="str">
-        <v/>
-      </c>
-      <c r="M19" t="str">
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <v/>
-      </c>
-      <c r="P19" t="str">
-        <v/>
-      </c>
-      <c r="Q19" t="str">
-        <v/>
-      </c>
-      <c r="R19" t="str">
-        <v/>
-      </c>
-      <c r="S19" t="str">
-        <v/>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <v>四、利润总额</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <v>50827603447.47</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <v>38740072142.6</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20">
         <v>23957880957.11</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20">
         <v>22001714961.34</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20">
         <v>21882342437.33</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20">
         <v>21432360425.97</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20">
         <v>18700490469.16</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20">
         <v>12334660473.8</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J20">
         <v>7162416731.37</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20">
         <v>6080539884.64</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L20">
         <v>5385300638.16</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M20">
         <v>4522025015.93</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N20">
         <v>2488186993.43</v>
       </c>
-      <c r="O20" t="str">
+      <c r="O20">
         <v>1920246363.64</v>
       </c>
-      <c r="P20" t="str">
+      <c r="P20">
         <v>1490672514.81</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="Q20">
         <v>977294613.26</v>
       </c>
-      <c r="R20" t="str">
+      <c r="R20">
         <v>649370371.52</v>
       </c>
-      <c r="S20" t="str">
+      <c r="S20">
         <v>607278206.25</v>
       </c>
     </row>
@@ -1564,58 +1564,58 @@
       <c r="A21" t="str">
         <v>减：所得税</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21">
         <v>12997985690.66</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <v>9733648906.6</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21">
         <v>6027237847.23</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21">
         <v>5546718336.12</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21">
         <v>5612970927.5</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21">
         <v>5467460544.92</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21">
         <v>4692039766.99</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21">
         <v>3084336666.18</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J21">
         <v>1822655234.4</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21">
         <v>1527650940.64</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L21">
         <v>1384541295.05</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M21">
         <v>1555972506.98</v>
       </c>
-      <c r="N21" t="str">
+      <c r="N21">
         <v>913878754.97</v>
       </c>
-      <c r="O21" t="str">
+      <c r="O21">
         <v>751124237.93</v>
       </c>
-      <c r="P21" t="str">
+      <c r="P21">
         <v>636500339.35</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="Q21">
         <v>368541117.2</v>
       </c>
-      <c r="R21" t="str">
+      <c r="R21">
         <v>256784400.75</v>
       </c>
-      <c r="S21" t="str">
+      <c r="S21">
         <v>264912397.48</v>
       </c>
     </row>
@@ -1623,58 +1623,58 @@
       <c r="A22" t="str">
         <v>五、净利润</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22">
         <v>37829617756.81</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
         <v>29006423236</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22">
         <v>17930643109.88</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22">
         <v>16454996625.22</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
         <v>16269371509.83</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22">
         <v>15964899881.05</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22">
         <v>14008450702.17</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22">
         <v>9250323807.62</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J22">
         <v>5339761496.97</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22">
         <v>4552888944</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22">
         <v>4000759343.11</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M22">
         <v>2966052508.95</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N22">
         <v>1574308238.46</v>
       </c>
-      <c r="O22" t="str">
+      <c r="O22">
         <v>1169122125.71</v>
       </c>
-      <c r="P22" t="str">
+      <c r="P22">
         <v>854172175.46</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="Q22">
         <v>608753496.06</v>
       </c>
-      <c r="R22" t="str">
+      <c r="R22">
         <v>376798521.36</v>
       </c>
-      <c r="S22" t="str">
+      <c r="S22">
         <v>328290723.14</v>
       </c>
     </row>
@@ -1682,58 +1682,58 @@
       <c r="A23" t="str">
         <v>归属于母公司所有者的净利润</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23">
         <v>35203625263.22</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
         <v>27079360255.74</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23">
         <v>16718362734.16</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23">
         <v>15503090276.38</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <v>15349804322.27</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23">
         <v>15136639784.35</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23">
         <v>13308079612.88</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23">
         <v>8763145910.23</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J23">
         <v>5051194218.26</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23">
         <v>4312446124.73</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L23">
         <v>3799480558.51</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23">
         <v>2830831594.36</v>
       </c>
-      <c r="N23" t="str">
+      <c r="N23">
         <v>1504116840.49</v>
       </c>
-      <c r="O23" t="str">
+      <c r="O23">
         <v>1118541629.37</v>
       </c>
-      <c r="P23" t="str">
+      <c r="P23">
         <v>820553997.19</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="Q23">
         <v>586747838.27</v>
       </c>
-      <c r="R23" t="str">
+      <c r="R23">
         <v>376798521.36</v>
       </c>
-      <c r="S23" t="str">
+      <c r="S23">
         <v>328290723.14</v>
       </c>
     </row>
@@ -1741,58 +1741,58 @@
       <c r="A24" t="str">
         <v>少数股东损益</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24">
         <v>2625992493.59</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24">
         <v>1927062980.26</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24">
         <v>1212280375.72</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24">
         <v>951906348.84</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <v>919567187.56</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24">
         <v>828260096.7</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24">
         <v>700371089.29</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24">
         <v>487177897.39</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24">
         <v>288567278.71</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24">
         <v>240442819.27</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L24">
         <v>201278784.6</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M24">
         <v>135220914.59</v>
       </c>
-      <c r="N24" t="str">
+      <c r="N24">
         <v>70191397.97</v>
       </c>
-      <c r="O24" t="str">
+      <c r="O24">
         <v>50580496.34</v>
       </c>
-      <c r="P24" t="str">
+      <c r="P24">
         <v>33618178.27</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="Q24">
         <v>22005657.79</v>
       </c>
-      <c r="R24" t="str">
+      <c r="R24">
         <v>15787449.41</v>
       </c>
-      <c r="S24" t="str">
+      <c r="S24">
         <v>14075085.63</v>
       </c>
     </row>
@@ -1800,117 +1800,117 @@
       <c r="A25" t="str">
         <v>六、每股收益：</v>
       </c>
-      <c r="B25" t="str">
-        <v/>
-      </c>
-      <c r="C25" t="str">
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <v/>
-      </c>
-      <c r="I25" t="str">
-        <v/>
-      </c>
-      <c r="J25" t="str">
-        <v/>
-      </c>
-      <c r="K25" t="str">
-        <v/>
-      </c>
-      <c r="L25" t="str">
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <v/>
-      </c>
-      <c r="O25" t="str">
-        <v/>
-      </c>
-      <c r="P25" t="str">
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <v/>
-      </c>
-      <c r="R25" t="str">
-        <v/>
-      </c>
-      <c r="S25" t="str">
-        <v/>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
         <v>（一）基本每股收益</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26">
         <v>28.02</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <v>21.56</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26">
         <v>13.31</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26">
         <v>12.34</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <v>13.44</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26">
         <v>14.58</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26">
         <v>12.82</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26">
         <v>8.44</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26">
         <v>5.35</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26">
         <v>4.57</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26">
         <v>4.03</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M26">
         <v>3</v>
       </c>
-      <c r="N26" t="str">
-        <v/>
-      </c>
-      <c r="O26" t="str">
-        <v/>
-      </c>
-      <c r="P26" t="str">
-        <v/>
-      </c>
-      <c r="Q26" t="str">
-        <v/>
-      </c>
-      <c r="R26" t="str">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>1.37</v>
       </c>
-      <c r="S26" t="str">
+      <c r="S26">
         <v>1.31</v>
       </c>
     </row>
@@ -1918,295 +1918,295 @@
       <c r="A27" t="str">
         <v>（二）稀释每股收益</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27">
         <v>28.02</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <v>21.56</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27">
         <v>13.31</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27">
         <v>12.34</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27">
         <v>13.44</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27">
         <v>14.58</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27">
         <v>12.82</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27">
         <v>8.44</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27">
         <v>5.35</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27">
         <v>4.57</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L27">
         <v>4.03</v>
       </c>
-      <c r="M27" t="str">
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="N27" t="str">
-        <v/>
-      </c>
-      <c r="O27" t="str">
-        <v/>
-      </c>
-      <c r="P27" t="str">
-        <v/>
-      </c>
-      <c r="Q27" t="str">
-        <v/>
-      </c>
-      <c r="R27" t="str">
-        <v/>
-      </c>
-      <c r="S27" t="str">
-        <v/>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
         <v>七、其他综合收益</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28">
         <v>335850.7</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
         <v>3839265.16</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28">
         <v>1793233.91</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28">
         <v>-12415031.48</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28">
         <v>-619043.99</v>
       </c>
-      <c r="G28" t="str">
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <v/>
-      </c>
-      <c r="I28" t="str">
-        <v/>
-      </c>
-      <c r="J28" t="str">
-        <v/>
-      </c>
-      <c r="K28" t="str">
-        <v/>
-      </c>
-      <c r="L28" t="str">
-        <v/>
-      </c>
-      <c r="M28" t="str">
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <v/>
-      </c>
-      <c r="O28" t="str">
-        <v/>
-      </c>
-      <c r="P28" t="str">
-        <v/>
-      </c>
-      <c r="Q28" t="str">
-        <v/>
-      </c>
-      <c r="R28" t="str">
-        <v/>
-      </c>
-      <c r="S28" t="str">
-        <v/>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
         <v>八、综合收益总额</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29">
         <v>37829953607.51</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
         <v>29010262501.16</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29">
         <v>17932436343.79</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29">
         <v>16442581593.74</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29">
         <v>16268752465.84</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29">
         <v>15964899881.05</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29">
         <v>14008450702.17</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29">
         <v>9250323807.62</v>
       </c>
-      <c r="J29" t="str">
-        <v/>
-      </c>
-      <c r="K29" t="str">
-        <v/>
-      </c>
-      <c r="L29" t="str">
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <v/>
-      </c>
-      <c r="N29" t="str">
-        <v/>
-      </c>
-      <c r="O29" t="str">
-        <v/>
-      </c>
-      <c r="P29" t="str">
-        <v/>
-      </c>
-      <c r="Q29" t="str">
-        <v/>
-      </c>
-      <c r="R29" t="str">
-        <v/>
-      </c>
-      <c r="S29" t="str">
-        <v/>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <v>其中：归属于母公司</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30">
         <v>35203961113.92</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30">
         <v>27083199520.9</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30">
         <v>16720155968.07</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30">
         <v>15490675244.9</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30">
         <v>15349185278.28</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30">
         <v>15136639784.35</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30">
         <v>13308079612.88</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30">
         <v>8763145910.23</v>
       </c>
-      <c r="J30" t="str">
-        <v/>
-      </c>
-      <c r="K30" t="str">
-        <v/>
-      </c>
-      <c r="L30" t="str">
-        <v/>
-      </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
-      <c r="N30" t="str">
-        <v/>
-      </c>
-      <c r="O30" t="str">
-        <v/>
-      </c>
-      <c r="P30" t="str">
-        <v/>
-      </c>
-      <c r="Q30" t="str">
-        <v/>
-      </c>
-      <c r="R30" t="str">
-        <v/>
-      </c>
-      <c r="S30" t="str">
-        <v/>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
         <v>其中：归属于少数股东</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31">
         <v>2625992493.59</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31">
         <v>1927062980.26</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31">
         <v>1212280375.72</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31">
         <v>951906348.84</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31">
         <v>919567187.56</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31">
         <v>828260096.7</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31">
         <v>700371089.29</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31">
         <v>487177897.39</v>
       </c>
-      <c r="J31" t="str">
-        <v/>
-      </c>
-      <c r="K31" t="str">
-        <v/>
-      </c>
-      <c r="L31" t="str">
-        <v/>
-      </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <v/>
-      </c>
-      <c r="O31" t="str">
-        <v/>
-      </c>
-      <c r="P31" t="str">
-        <v/>
-      </c>
-      <c r="Q31" t="str">
-        <v/>
-      </c>
-      <c r="R31" t="str">
-        <v/>
-      </c>
-      <c r="S31" t="str">
-        <v/>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
